--- a/data/trans_camb/P27A_12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_12-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,10 +652,25 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -639,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,10 +705,25 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,10 +758,25 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -777,12 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-81,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-75,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-79,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -0,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-82,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-71,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,6; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,42; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,57; 130,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,77; 139,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 10,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 6,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 180,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,77; 172,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 141,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 369,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 70,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 193,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 13,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 6,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-23,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-25,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 146,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 224,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,42; 42,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 40,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,1; 48,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 59,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 13,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 7,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 2,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 6,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-27,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 95,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 147,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,83; 67,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 21,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 51,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-27,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-21,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 34,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 61,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 30,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 27,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
